--- a/notebooks/Data/Star_Wars_Episode_V_The_Empire_Strikes_Back/centrality.xlsx
+++ b/notebooks/Data/Star_Wars_Episode_V_The_Empire_Strikes_Back/centrality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>betweenness_centrality</t>
   </si>
@@ -28,7 +28,13 @@
     <t>eigenvector_centrality</t>
   </si>
   <si>
+    <t>in_degree</t>
+  </si>
+  <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>out_degree</t>
   </si>
   <si>
     <t>Derek Klivian</t>
@@ -581,13 +587,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,8 +609,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -620,11 +632,17 @@
       <c r="E2">
         <v>0.03860398534102795</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -640,11 +658,17 @@
       <c r="E3">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -660,11 +684,17 @@
       <c r="E4">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -680,11 +710,17 @@
       <c r="E5">
         <v>0.03778626561521268</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -700,11 +736,17 @@
       <c r="E6">
         <v>0.06006999765189344</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -720,11 +762,17 @@
       <c r="E7">
         <v>5.982445545673905e-12</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -740,11 +788,17 @@
       <c r="E8">
         <v>3.211431154786351e-08</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -760,11 +814,17 @@
       <c r="E9">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -780,11 +840,17 @@
       <c r="E10">
         <v>0.272002083676532</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -800,11 +866,17 @@
       <c r="E11">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -820,11 +892,17 @@
       <c r="E12">
         <v>5.569112944336436e-10</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -840,11 +918,17 @@
       <c r="E13">
         <v>0.1061878748706392</v>
       </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -860,11 +944,17 @@
       <c r="E14">
         <v>0.2150776454553619</v>
       </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -880,11 +970,17 @@
       <c r="E15">
         <v>0.006500447671803638</v>
       </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -900,11 +996,17 @@
       <c r="E16">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -920,11 +1022,17 @@
       <c r="E17">
         <v>0.02809468626240997</v>
       </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -940,11 +1048,17 @@
       <c r="E18">
         <v>0.1026375789041797</v>
       </c>
-      <c r="F18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -960,11 +1074,17 @@
       <c r="E19">
         <v>5.569112944336436e-10</v>
       </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -980,11 +1100,17 @@
       <c r="E20">
         <v>0.002739676742718638</v>
       </c>
-      <c r="F20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1000,11 +1126,17 @@
       <c r="E21">
         <v>0.03535818658549125</v>
       </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1020,11 +1152,17 @@
       <c r="E22">
         <v>0.2610485204661796</v>
       </c>
-      <c r="F22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1040,11 +1178,17 @@
       <c r="E23">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1060,11 +1204,17 @@
       <c r="E24">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1080,11 +1230,17 @@
       <c r="E25">
         <v>0.2419822275721541</v>
       </c>
-      <c r="F25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1100,11 +1256,17 @@
       <c r="E26">
         <v>0.2737041193633636</v>
       </c>
-      <c r="F26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1120,11 +1282,17 @@
       <c r="E27">
         <v>0.05843135850231539</v>
       </c>
-      <c r="F27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1140,11 +1308,17 @@
       <c r="E28">
         <v>3.211431154786351e-08</v>
       </c>
-      <c r="F28" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1160,11 +1334,17 @@
       <c r="E29">
         <v>0.2463204728734142</v>
       </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1180,11 +1360,17 @@
       <c r="E30">
         <v>0.289711264619441</v>
       </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1200,11 +1386,17 @@
       <c r="E31">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1220,11 +1412,17 @@
       <c r="E32">
         <v>0.2726897048374134</v>
       </c>
-      <c r="F32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1240,11 +1438,17 @@
       <c r="E33">
         <v>0.01282112828158174</v>
       </c>
-      <c r="F33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1260,11 +1464,17 @@
       <c r="E34">
         <v>0.299516182367368</v>
       </c>
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1280,11 +1490,17 @@
       <c r="E35">
         <v>0.04854124816824363</v>
       </c>
-      <c r="F35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1300,11 +1516,17 @@
       <c r="E36">
         <v>0.09415605505662657</v>
       </c>
-      <c r="F36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1320,11 +1542,17 @@
       <c r="E37">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1340,11 +1568,17 @@
       <c r="E38">
         <v>0.007293922046328409</v>
       </c>
-      <c r="F38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1360,11 +1594,17 @@
       <c r="E39">
         <v>5.569112944336436e-10</v>
       </c>
-      <c r="F39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1380,11 +1620,17 @@
       <c r="E40">
         <v>0.0856873191867773</v>
       </c>
-      <c r="F40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1400,11 +1646,17 @@
       <c r="E41">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1420,11 +1672,17 @@
       <c r="E42">
         <v>3.211431154786351e-08</v>
       </c>
-      <c r="F42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1440,11 +1698,17 @@
       <c r="E43">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F43" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1460,11 +1724,17 @@
       <c r="E44">
         <v>0.007896899986320179</v>
       </c>
-      <c r="F44" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1480,11 +1750,17 @@
       <c r="E45">
         <v>0.1655010812412541</v>
       </c>
-      <c r="F45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="F45">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1500,11 +1776,17 @@
       <c r="E46">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1520,11 +1802,17 @@
       <c r="E47">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1540,11 +1828,17 @@
       <c r="E48">
         <v>0.02628312991723694</v>
       </c>
-      <c r="F48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1560,11 +1854,17 @@
       <c r="E49">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F49" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1580,11 +1880,17 @@
       <c r="E50">
         <v>0.3076104615559268</v>
       </c>
-      <c r="F50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="F50">
+        <v>34</v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1600,11 +1906,17 @@
       <c r="E51">
         <v>0.02382998816067255</v>
       </c>
-      <c r="F51" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1620,11 +1932,17 @@
       <c r="E52">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F52" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1640,11 +1958,17 @@
       <c r="E53">
         <v>0.06559560511882023</v>
       </c>
-      <c r="F53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="F53">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>58</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1660,11 +1984,17 @@
       <c r="E54">
         <v>0.03094246107707711</v>
       </c>
-      <c r="F54" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1680,11 +2010,17 @@
       <c r="E55">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F55" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1700,11 +2036,17 @@
       <c r="E56">
         <v>0.03526436620829258</v>
       </c>
-      <c r="F56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1720,11 +2062,17 @@
       <c r="E57">
         <v>0.002036097185905941</v>
       </c>
-      <c r="F57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1740,11 +2088,17 @@
       <c r="E58">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F58" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1760,11 +2114,17 @@
       <c r="E59">
         <v>0.06299880501126565</v>
       </c>
-      <c r="F59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1780,11 +2140,17 @@
       <c r="E60">
         <v>0.007858938093128152</v>
       </c>
-      <c r="F60" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1800,11 +2166,17 @@
       <c r="E61">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F61" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1820,11 +2192,17 @@
       <c r="E62">
         <v>0.02244323793813187</v>
       </c>
-      <c r="F62" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1840,11 +2218,17 @@
       <c r="E63">
         <v>0.2354975500673344</v>
       </c>
-      <c r="F63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="F63">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1860,11 +2244,17 @@
       <c r="E64">
         <v>5.438586859703551e-13</v>
       </c>
-      <c r="F64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>69</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1880,11 +2270,17 @@
       <c r="E65">
         <v>0.1944754867797682</v>
       </c>
-      <c r="F65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1900,8 +2296,14 @@
       <c r="E66">
         <v>0.2986386866493435</v>
       </c>
-      <c r="F66" t="s">
-        <v>69</v>
+      <c r="F66">
+        <v>31</v>
+      </c>
+      <c r="G66" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
